--- a/Section2.xlsx
+++ b/Section2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bear/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bear/MemBo_Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91868C43-6056-5F4C-803C-4694D5F597FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D60F70-4FD0-0E40-A111-821659D85B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Throughput Log" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,6 @@
     <sheet name="DPU apps runtime (no DMP)" sheetId="6" r:id="rId3"/>
     <sheet name="DMP breakdown)" sheetId="7" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'DPU apps runtime (no DMP)'!$A$2:$A$33</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'DPU apps runtime (no DMP)'!$B$2:$B$33</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'DPU apps runtime (no DMP)'!$E$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'DPU apps runtime (no DMP)'!$E$2:$E$33</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'DPU apps runtime (no DMP)'!$C$2:$C$33</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'DPU apps runtime (no DMP)'!$D$2:$D$33</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'DPU apps runtime (no DMP)'!$E$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'DPU apps runtime (no DMP)'!$E$2:$E$33</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'DPU apps runtime (no DMP)'!$A$2:$A$33</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'DPU apps runtime (no DMP)'!$B$2:$B$33</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'DPU apps runtime (no DMP)'!$C$2:$C$33</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'DPU apps runtime (no DMP)'!$D$2:$D$33</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -4067,16 +4053,6 @@
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2800"/>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
@@ -4092,7 +4068,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="2400">
+        <a:defRPr sz="2400" b="0">
           <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
@@ -9344,7 +9320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DF346"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -63022,7 +62998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+    <sheetView topLeftCell="B26" workbookViewId="0">
       <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
